--- a/Configs/Event.xlsx
+++ b/Configs/Event.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25500" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="事件" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martian</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Martian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+事件ID=100010-199999</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <t>事件ID</t>
   </si>
   <si>
+    <t>发生层数</t>
+  </si>
+  <si>
     <t>事件名</t>
   </si>
   <si>
@@ -69,123 +104,201 @@
     <t>选项3参数</t>
   </si>
   <si>
+    <t>eventId</t>
+  </si>
+  <si>
+    <t>eventLevel</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>eventImgPath</t>
+  </si>
+  <si>
+    <t>eventDesc</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>option1Eff</t>
+  </si>
+  <si>
+    <t>option1EffValue</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>option2Eff</t>
+  </si>
+  <si>
+    <t>option2EffValue</t>
+  </si>
+  <si>
+    <t>option3</t>
+  </si>
+  <si>
+    <t>option3Eff</t>
+  </si>
+  <si>
+    <t>option3EffValue</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>当你踏出脚时，地上的砖块陷了下去......</t>
+  </si>
+  <si>
+    <t>往左翻滚！</t>
+  </si>
+  <si>
+    <t>往右翻滚！</t>
+  </si>
+  <si>
+    <t>快防御！</t>
+  </si>
+  <si>
+    <t>陷阱——结果</t>
+  </si>
+  <si>
+    <t>你敏捷的翻滚躲开了箭击</t>
+  </si>
+  <si>
+    <t>好耶！</t>
+  </si>
+  <si>
+    <t>反应迅速的翻滚！但弓箭还是击中了你......</t>
+  </si>
+  <si>
+    <t>哦不！</t>
+  </si>
+  <si>
+    <t>拔出武器，精确格挡！</t>
+  </si>
+  <si>
+    <t>好险！</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>满地的瓶子</t>
+  </si>
+  <si>
+    <t>房间满地都是装满液体的瓶子</t>
+  </si>
+  <si>
+    <t>喝一口试试？</t>
+  </si>
+  <si>
+    <t>无视</t>
+  </si>
+  <si>
+    <t>满地的瓶子——结果</t>
+  </si>
+  <si>
+    <t>意外的...好喝？</t>
+  </si>
+  <si>
+    <t>好耶</t>
+  </si>
+  <si>
+    <t>宝箱？</t>
+  </si>
+  <si>
+    <t>房间空荡荡的，正中间放着一个宝箱</t>
+  </si>
+  <si>
+    <t>肯定是宝箱怪！攻击它！</t>
+  </si>
+  <si>
+    <t>万一呢？打开它看看</t>
+  </si>
+  <si>
+    <t>宝箱？——结果</t>
+  </si>
+  <si>
+    <t>一阵猛击，宝箱连同内容物都被破坏了</t>
+  </si>
+  <si>
+    <t>啊这......</t>
+  </si>
+  <si>
+    <t>打开宝箱的瞬间，脑海里响起了“金色传说！”</t>
+  </si>
+  <si>
+    <t>一阵猛击后，宝箱怪被突如其来的攻击干掉了</t>
+  </si>
+  <si>
+    <t>靠近宝箱的瞬间，宝箱怪突然向你吐了一口酸性浓痰</t>
+  </si>
+  <si>
+    <t>果然！真晦气！</t>
+  </si>
+  <si>
+    <t>奇怪的按钮</t>
+  </si>
+  <si>
+    <t>房间中间的台子上有两个奇怪的按钮</t>
+  </si>
+  <si>
+    <t>按左边的！</t>
+  </si>
+  <si>
+    <t>按右边的！</t>
+  </si>
+  <si>
+    <t>还是算了吧......</t>
+  </si>
+  <si>
+    <t>奇怪的按钮——结果</t>
+  </si>
+  <si>
+    <t>你感受到一阵电流穿过你的身体</t>
+  </si>
+  <si>
+    <t>这感觉真糟糕</t>
+  </si>
+  <si>
+    <t>感受到身体开始发烫......</t>
+  </si>
+  <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>效果描述</t>
+  </si>
+  <si>
+    <t>参数说明</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>eventImgPath</t>
-  </si>
-  <si>
-    <t>eventDesc</t>
-  </si>
-  <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>option1Eff</t>
-  </si>
-  <si>
-    <t>option1EffValue</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option2Eff</t>
-  </si>
-  <si>
-    <t>option2EffValue</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
-    <t>option3Eff</t>
-  </si>
-  <si>
-    <t>option3EffValue</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>陷阱1</t>
-  </si>
-  <si>
-    <t>当你踏出脚时，地上的砖块陷了下去......</t>
-  </si>
-  <si>
-    <t>往左翻滚！</t>
-  </si>
-  <si>
-    <t>往右翻滚！</t>
-  </si>
-  <si>
-    <t>快防御！</t>
-  </si>
-  <si>
-    <t>陷阱1——结果</t>
-  </si>
-  <si>
-    <t>你敏捷的翻滚躲开了箭击</t>
-  </si>
-  <si>
-    <t>好耶！</t>
-  </si>
-  <si>
-    <t>反应迅速的翻滚！但弓箭还是击中了你......</t>
-  </si>
-  <si>
-    <t>哦不！</t>
-  </si>
-  <si>
-    <t>拔出屋企，精确格挡！</t>
-  </si>
-  <si>
-    <t>好险！</t>
-  </si>
-  <si>
-    <t>满地的瓶子</t>
-  </si>
-  <si>
-    <t>房间满地都是装满液体的瓶子</t>
-  </si>
-  <si>
-    <t>喝一口试试？</t>
-  </si>
-  <si>
-    <t>无视</t>
-  </si>
-  <si>
-    <t>满地的瓶子——结果</t>
-  </si>
-  <si>
-    <t>意外的...好喝？</t>
-  </si>
-  <si>
-    <t>好耶</t>
-  </si>
-  <si>
-    <t>效果ID</t>
-  </si>
-  <si>
-    <t>效果描述</t>
-  </si>
-  <si>
-    <t>参数说明</t>
-  </si>
-  <si>
     <t>跳转到另一事件</t>
   </si>
   <si>
     <t>事件id</t>
   </si>
   <si>
+    <t>获得道具</t>
+  </si>
+  <si>
+    <t>道具id</t>
+  </si>
+  <si>
     <t>头部受到伤害</t>
   </si>
   <si>
@@ -204,6 +317,9 @@
     <t>腿部受到伤害</t>
   </si>
   <si>
+    <t>全身受到伤害</t>
+  </si>
+  <si>
     <t>武器耐久减少</t>
   </si>
   <si>
@@ -235,6 +351,21 @@
   </si>
   <si>
     <t>生命值增加</t>
+  </si>
+  <si>
+    <t>生命值上限</t>
+  </si>
+  <si>
+    <t>力量增加</t>
+  </si>
+  <si>
+    <t>敏捷增加</t>
+  </si>
+  <si>
+    <t>体质增加</t>
+  </si>
+  <si>
+    <t>灵巧增加</t>
   </si>
 </sst>
 </file>
@@ -247,7 +378,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +549,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -897,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,12 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,29 +1369,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.925" customWidth="1"/>
-    <col min="4" max="4" width="37.5916666666667" customWidth="1"/>
-    <col min="5" max="5" width="30.55" customWidth="1"/>
-    <col min="6" max="6" width="11.2416666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.7" customWidth="1"/>
-    <col min="8" max="8" width="25.475" customWidth="1"/>
-    <col min="9" max="9" width="11.5583333333333" customWidth="1"/>
-    <col min="10" max="10" width="15.3" customWidth="1"/>
-    <col min="11" max="11" width="27.3083333333333" customWidth="1"/>
-    <col min="12" max="12" width="10.775" customWidth="1"/>
-    <col min="13" max="13" width="16.5666666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.7583333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.575" customWidth="1"/>
+    <col min="3" max="3" width="19.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.925" customWidth="1"/>
+    <col min="5" max="5" width="44.2333333333333" customWidth="1"/>
+    <col min="6" max="6" width="30.55" customWidth="1"/>
+    <col min="7" max="7" width="11.2416666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.7" customWidth="1"/>
+    <col min="9" max="9" width="25.475" customWidth="1"/>
+    <col min="10" max="10" width="11.5583333333333" customWidth="1"/>
+    <col min="11" max="11" width="15.3" customWidth="1"/>
+    <col min="12" max="12" width="27.3083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.775" customWidth="1"/>
+    <col min="14" max="14" width="16.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="16.5" spans="1:13">
+    <row r="1" s="4" customFormat="1" ht="16.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,265 +1406,479 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="16.5" spans="1:13">
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="16.5" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="16.5" spans="1:13">
+      <c r="M2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="16.5" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="16.5" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="16.5" spans="1:14">
       <c r="A4" s="5">
         <v>100010</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
         <v>100011</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>100012</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="5">
         <v>1</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>100013</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A5" s="5">
         <v>100011</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="16.5" spans="1:7">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A6" s="5">
         <v>100012</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5</v>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="5">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="7" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A7" s="5">
         <v>100013</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="5">
-        <v>7</v>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="5">
+        <v>9</v>
+      </c>
+      <c r="H7" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="8" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A8" s="5">
         <v>100020</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>100021</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:7">
+      <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A9" s="5">
         <v>100021</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="5">
-        <v>15</v>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G9" s="5">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="H9" s="5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A10" s="5">
+        <v>100031</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>100032</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>100033</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A11" s="5">
+        <v>100032</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A12" s="5">
+        <v>100033</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A13" s="5">
+        <v>100041</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>100042</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>100043</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A14" s="5">
+        <v>100042</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A15" s="5">
+        <v>100043</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="5">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A16" s="5">
+        <v>100051</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A17" s="5">
+        <v>100052</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="5">
+        <v>20</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A18" s="5">
+        <v>100053</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="5">
+        <v>19</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1538,25 +1890,25 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1566,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1577,10 +1929,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1588,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1599,10 +1951,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1610,10 +1962,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1621,10 +1973,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1632,10 +1984,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1643,10 +1995,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1654,10 +2006,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1665,10 +2017,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1676,10 +2028,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1687,10 +2039,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1698,10 +2050,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1709,10 +2061,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1720,10 +2072,87 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Event.xlsx
+++ b/Configs/Event.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655"/>
+    <workbookView windowWidth="25500" windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="事件" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
   <si>
     <t>事件ID</t>
   </si>
@@ -104,7 +104,7 @@
     <t>选项3参数</t>
   </si>
   <si>
-    <t>eventId</t>
+    <t>id</t>
   </si>
   <si>
     <t>eventLevel</t>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>参数说明</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>跳转到另一事件</t>
@@ -1371,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1877,8 +1874,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1918,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1929,10 +1926,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1940,10 +1937,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1951,10 +1948,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1962,10 +1959,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1973,10 +1970,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1984,10 +1981,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1995,10 +1992,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2006,10 +2003,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2017,10 +2014,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2028,10 +2025,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2039,10 +2036,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2050,10 +2047,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2061,10 +2058,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2072,10 +2069,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2083,10 +2080,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2094,10 +2091,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2105,10 +2102,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2116,10 +2113,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2127,10 +2124,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2138,10 +2135,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2149,10 +2146,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Event.xlsx
+++ b/Configs/Event.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="事件" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
   <si>
     <t>事件ID</t>
   </si>
@@ -155,6 +155,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
     <t>陷阱</t>
   </si>
   <si>
@@ -189,9 +192,6 @@
   </si>
   <si>
     <t>好险！</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
   </si>
   <si>
     <t>满地的瓶子</t>
@@ -1368,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1526,17 +1526,17 @@
       <c r="A4" s="5">
         <v>100010</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>100011</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>100012</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="5">
         <v>1</v>
@@ -1567,34 +1567,34 @@
       <c r="A5" s="5">
         <v>100011</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A6" s="5">
         <v>100012</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5">
         <v>6</v>
@@ -1607,17 +1607,17 @@
       <c r="A7" s="5">
         <v>100013</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5">
         <v>9</v>
@@ -1631,7 +1631,7 @@
         <v>100020</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>44</v>
@@ -1657,7 +1657,7 @@
         <v>100021</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>48</v>
@@ -1679,6 +1679,9 @@
       <c r="A10" s="5">
         <v>100031</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1708,6 +1711,9 @@
       <c r="A11" s="5">
         <v>100032</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1722,6 +1728,9 @@
       <c r="A12" s="5">
         <v>100033</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="5">
         <v>2</v>
@@ -1742,6 +1751,9 @@
       <c r="A13" s="5">
         <v>100041</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
@@ -1771,6 +1783,9 @@
       <c r="A14" s="5">
         <v>100042</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
@@ -1778,13 +1793,16 @@
         <v>59</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A15" s="5">
         <v>100043</v>
       </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>55</v>
       </c>
@@ -1805,6 +1823,9 @@
       <c r="A16" s="5">
         <v>100051</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
@@ -1825,6 +1846,9 @@
       <c r="A17" s="5">
         <v>100052</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>67</v>
       </c>
@@ -1844,6 +1868,9 @@
     <row r="18" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A18" s="5">
         <v>100053</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>67</v>
@@ -1874,7 +1901,7 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Configs/Event.xlsx
+++ b/Configs/Event.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10951\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA9A67-03E4-410A-A981-21C04F832E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事件" sheetId="1" r:id="rId1"/>
     <sheet name="效果类型" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Martian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>事件ID</t>
   </si>
@@ -363,19 +356,53 @@
   </si>
   <si>
     <t>灵巧增加</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可疑的药水商</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>就…喝一杯？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>来杯猛的！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可疑的药水商——结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你感到食道出现一阵灼烧感，但好在并不太糟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>面前出现了一个可疑的人，嘴里在反复念叨“来吧，喝一杯…”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你感到食道出现剧烈灼烧感，这糟糕极了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>太贪心了！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像变强了一些</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,150 +431,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -558,8 +441,28 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,204 +471,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -788,255 +505,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,62 +530,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1360,37 +800,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7583333333333" customWidth="1"/>
-    <col min="2" max="2" width="8.575" customWidth="1"/>
-    <col min="3" max="3" width="19.7083333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.925" customWidth="1"/>
-    <col min="5" max="5" width="44.2333333333333" customWidth="1"/>
-    <col min="6" max="6" width="30.55" customWidth="1"/>
-    <col min="7" max="7" width="11.2416666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.7" customWidth="1"/>
-    <col min="9" max="9" width="25.475" customWidth="1"/>
-    <col min="10" max="10" width="11.5583333333333" customWidth="1"/>
-    <col min="11" max="11" width="15.3" customWidth="1"/>
-    <col min="12" max="12" width="27.3083333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.775" customWidth="1"/>
-    <col min="14" max="14" width="16.5666666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="27.25" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="16.5" spans="1:14">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="16.5" spans="1:14">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="16.5" spans="1:14">
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1522,11 +962,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="16.5" spans="1:14">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>100010</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1563,11 +1003,11 @@
         <v>100013</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>100011</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1580,11 +1020,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>100012</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1603,11 +1043,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>100013</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1626,11 +1066,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>100020</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1652,11 +1092,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>100021</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1675,10 +1115,13 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:11">
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>100031</v>
       </c>
+      <c r="B10" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1704,10 +1147,13 @@
         <v>100033</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="11" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>100032</v>
       </c>
+      <c r="B11" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1718,10 +1164,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>100033</v>
       </c>
+      <c r="B12" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
@@ -1738,10 +1187,13 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="16.5" spans="1:11">
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>100041</v>
       </c>
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
@@ -1767,10 +1219,13 @@
         <v>100043</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="14" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>100042</v>
       </c>
+      <c r="B14" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
@@ -1781,10 +1236,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>100043</v>
       </c>
+      <c r="B15" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>55</v>
       </c>
@@ -1801,10 +1259,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="16.5" spans="1:12">
+    <row r="16" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>100051</v>
       </c>
+      <c r="B16" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
@@ -1814,17 +1275,32 @@
       <c r="F16" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>100052</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>100053</v>
+      </c>
       <c r="L16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="17" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>100052</v>
       </c>
+      <c r="B17" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>67</v>
       </c>
@@ -1841,10 +1317,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="18" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>100053</v>
       </c>
+      <c r="B18" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>67</v>
       </c>
@@ -1861,31 +1340,141 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>100061</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>100062</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>100063</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>100062</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="6">
+        <v>22</v>
+      </c>
+      <c r="H20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>100063</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="6">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="8"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7" customWidth="1"/>
-    <col min="2" max="2" width="20.6166666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.3" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1896,21 +1485,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:3">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1921,7 +1510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1932,7 +1521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1943,7 +1532,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1954,7 +1543,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1965,7 +1554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1976,7 +1565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1987,7 +1576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1998,7 +1587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2009,7 +1598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2020,7 +1609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2031,7 +1620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2042,7 +1631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2053,7 +1642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2064,7 +1653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2075,7 +1664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2086,7 +1675,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2097,55 +1686,55 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2153,8 +1742,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Configs/Event.xlsx
+++ b/Configs/Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BOOOM\BooomProject\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BooomProject\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02D7A9-D6B7-421E-8CED-472B19105430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5B13CB-D601-4834-94BE-AA5C73CB87D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事件" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
   <si>
     <t>事件ID</t>
   </si>
@@ -398,10 +398,6 @@
   <si>
     <t>你选择相信面包圣骑士，并接受他的洗礼</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得道具或装备</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>面包圣骑士慷慨的赠予你...</t>
@@ -490,6 +486,26 @@
   <si>
     <t>“看来你选择接受命运，但女神并不太青睐你…”</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得武器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得防具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -653,8 +669,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1316,7 @@
       <c r="G12" s="5">
         <v>2</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="5">
         <v>30003</v>
       </c>
     </row>
@@ -1553,7 +1569,7 @@
         <v>108</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
@@ -1589,7 +1605,7 @@
         <v>111</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="6">
         <v>10</v>
@@ -1619,7 +1635,7 @@
         <v>112</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="6">
         <v>2</v>
@@ -1642,14 +1658,14 @@
         <v>31</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
@@ -1658,7 +1674,7 @@
         <v>100082</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" s="6">
         <v>1</v>
@@ -1667,7 +1683,7 @@
         <v>100083</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M25" s="6">
         <v>1</v>
@@ -1684,14 +1700,14 @@
         <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="6">
         <v>22</v>
@@ -1700,7 +1716,7 @@
         <v>50</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" s="6">
         <v>10</v>
@@ -1709,7 +1725,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" s="6">
         <v>16</v>
@@ -1726,14 +1742,14 @@
         <v>31</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="G27" s="6">
         <v>22</v>
@@ -1742,7 +1758,7 @@
         <v>-50</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J27" s="6">
         <v>10</v>
@@ -1751,7 +1767,7 @@
         <v>-20</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M27" s="6">
         <v>16</v>
@@ -1768,14 +1784,14 @@
         <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="6">
         <v>22</v>
@@ -1784,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J28" s="6">
         <v>10</v>
@@ -1806,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1860,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>85</v>
@@ -2076,17 +2092,38 @@
       </c>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
